--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3147716.308661563</v>
+        <v>3145172.499154482</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>225.4031397636152</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>259.632696771575</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>111.331972117535</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>203.8804318482955</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.20279434449714</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015063</v>
+        <v>260.2363572824535</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015063</v>
+        <v>259.632696771575</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>225.4031397636151</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015063</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>77.09393081742186</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>194.8702723308017</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>66.24087630952546</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>65.77030295285029</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>279.4217116947751</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5491597882495</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>219.1455308645206</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>143.2927632288591</v>
       </c>
       <c r="G9" t="n">
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115243</v>
+        <v>20.2497997611523</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256402</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>50.34571932179953</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>107.4985065573604</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>19.86507844888319</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>73.93222849083779</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.733841663483</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2798,13 +2798,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428207</v>
       </c>
       <c r="G31" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,10 +3080,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3193,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3554,7 +3554,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529866</v>
       </c>
     </row>
     <row r="41">
@@ -3746,16 +3746,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722633</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444155</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426839</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3986,10 +3986,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G44" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4031,7 +4031,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711282</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>255.7225503044908</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="C2" t="n">
-        <v>255.7225503044908</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="D2" t="n">
-        <v>255.7225503044908</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="E2" t="n">
-        <v>255.7225503044908</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="F2" t="n">
-        <v>248.7770495552874</v>
+        <v>412.7875053134357</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>399.8236925399913</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="V2" t="n">
-        <v>788.477863438847</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="W2" t="n">
-        <v>788.477863438847</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="X2" t="n">
-        <v>522.1002068716689</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="Y2" t="n">
-        <v>255.7225503044908</v>
+        <v>419.7330060626392</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.0874629353336</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>373.6344336542066</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>224.7000239929554</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
@@ -4410,49 +4410,49 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699348</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302314</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>648.3904695545987</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212815</v>
+        <v>227.0369405499139</v>
       </c>
       <c r="X3" t="n">
-        <v>924.0630987203556</v>
+        <v>227.0369405499139</v>
       </c>
       <c r="Y3" t="n">
-        <v>716.3027999554017</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.32155393434483</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.413376528795</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551012</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375339</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.182233022705</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075546</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>452.8983006840411</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001382</v>
+        <v>452.8983006840411</v>
       </c>
       <c r="W4" t="n">
-        <v>533.7933752329601</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="X4" t="n">
-        <v>305.8038243349428</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.01124519141266</v>
+        <v>190.0332933280274</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.477863438847</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716689</v>
+        <v>157.477756798422</v>
       </c>
       <c r="D5" t="n">
-        <v>522.1002068716689</v>
+        <v>157.477756798422</v>
       </c>
       <c r="E5" t="n">
-        <v>294.4202677165021</v>
+        <v>157.477756798422</v>
       </c>
       <c r="F5" t="n">
-        <v>287.4747669672986</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>419.7330060626392</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
         <v>21.0971104001205</v>
@@ -4647,22 +4647,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267552</v>
+        <v>503.6022960313625</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293602</v>
+        <v>713.6562631339676</v>
       </c>
       <c r="O6" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4671,25 +4671,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="V6" t="n">
-        <v>858.0168610860233</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="W6" t="n">
-        <v>858.0168610860233</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="X6" t="n">
-        <v>858.0168610860233</v>
+        <v>273.4227970725827</v>
       </c>
       <c r="Y6" t="n">
-        <v>650.2565623210693</v>
+        <v>273.4227970725827</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>386.0368194650771</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C7" t="n">
-        <v>386.0368194650771</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9201800527414</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E7" t="n">
-        <v>88.00708647034824</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F7" t="n">
         <v>21.0971104001205</v>
@@ -4726,19 +4726,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375339</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.182233022705</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075546</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>988.4208705587013</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>988.4208705587013</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>762.9518343167156</v>
       </c>
       <c r="U7" t="n">
-        <v>788.477863438847</v>
+        <v>496.5741777495375</v>
       </c>
       <c r="V7" t="n">
-        <v>788.477863438847</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W7" t="n">
-        <v>788.477863438847</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>788.477863438847</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>567.6852842953168</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1079.294942698196</v>
+        <v>373.8967903081298</v>
       </c>
       <c r="C8" t="n">
-        <v>710.332425757784</v>
+        <v>373.8967903081298</v>
       </c>
       <c r="D8" t="n">
-        <v>352.0667271510335</v>
+        <v>373.8967903081298</v>
       </c>
       <c r="E8" t="n">
-        <v>69.82257392398786</v>
+        <v>373.8967903081298</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478439</v>
+        <v>366.9512895589264</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2112552068556</v>
+        <v>355.2854715909976</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467166</v>
+        <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607409</v>
+        <v>442.1757437607439</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045913</v>
+        <v>795.1862829045954</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.64796299523</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209581</v>
+        <v>1655.591685209588</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940592</v>
+        <v>2053.9057189406</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550194</v>
+        <v>2359.356530550203</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.56462266116</v>
+        <v>2540.564622661169</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.56276034278</v>
+        <v>2351.810676439062</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.56276034278</v>
+        <v>2098.229497964632</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999209</v>
+        <v>1876.870375879257</v>
       </c>
       <c r="W8" t="n">
-        <v>2229.499872999209</v>
+        <v>1524.101720609143</v>
       </c>
       <c r="X8" t="n">
-        <v>1856.034114738129</v>
+        <v>1150.635962348063</v>
       </c>
       <c r="Y8" t="n">
-        <v>1465.894782762317</v>
+        <v>760.4966303722516</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010836</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199566</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818587054</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532499</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4875,58 +4875,58 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993886</v>
+        <v>71.66559839993892</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637185</v>
+        <v>238.3188829507238</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148174</v>
+        <v>422.9158793018234</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377482983</v>
+        <v>1056.655162486664</v>
       </c>
       <c r="M9" t="n">
-        <v>1208.393778287027</v>
+        <v>1419.721630960965</v>
       </c>
       <c r="N9" t="n">
-        <v>1842.133061471865</v>
+        <v>1806.806033433535</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.019871459254</v>
+        <v>2138.692843420925</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888878</v>
+        <v>2421.055229888886</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442623</v>
+        <v>2536.272628442631</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.56276034278</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2424.826280251704</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685353</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751583</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1767.57421351984</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791638</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586106</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821152</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>715.9213805686134</v>
+        <v>476.1390772876028</v>
       </c>
       <c r="C10" t="n">
-        <v>546.9851976407065</v>
+        <v>307.202894359696</v>
       </c>
       <c r="D10" t="n">
-        <v>396.8685582283707</v>
+        <v>157.0862549473603</v>
       </c>
       <c r="E10" t="n">
-        <v>248.9554646459776</v>
+        <v>157.0862549473603</v>
       </c>
       <c r="F10" t="n">
-        <v>102.0655171480672</v>
+        <v>157.0862549473603</v>
       </c>
       <c r="G10" t="n">
-        <v>102.0655171480672</v>
+        <v>157.0862549473603</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2112552068556</v>
+        <v>157.0862549473603</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2112552068556</v>
+        <v>51.21125520685577</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380131</v>
+        <v>76.63468308380172</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676564</v>
+        <v>248.2500215676572</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368914</v>
+        <v>523.3850043368926</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904027</v>
+        <v>823.8653899904044</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101614</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931092</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616498</v>
+        <v>1581.490387616501</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477361</v>
+        <v>1533.156055412622</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477361</v>
+        <v>1533.156055412622</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477361</v>
+        <v>1310.174753887027</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477361</v>
+        <v>1021.056380381669</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477361</v>
+        <v>766.3718921757824</v>
       </c>
       <c r="W10" t="n">
-        <v>1346.351975440401</v>
+        <v>657.7875421178426</v>
       </c>
       <c r="X10" t="n">
-        <v>1118.362424542383</v>
+        <v>657.7875421178426</v>
       </c>
       <c r="Y10" t="n">
-        <v>897.5698453988531</v>
+        <v>657.7875421178426</v>
       </c>
     </row>
     <row r="11">
@@ -5042,7 +5042,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5261,34 +5261,34 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,25 +5297,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,19 +5650,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5744,55 +5744,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>552.8412329032295</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,19 +6221,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355936</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>250.5823850776722</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>250.5823850776722</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6607,16 +6607,16 @@
         <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,10 +6686,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
@@ -6731,7 +6731,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6780,25 +6780,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578601</v>
@@ -6880,28 +6880,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,43 +6923,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7023,19 +7023,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,25 +7072,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611465</v>
@@ -7394,31 +7394,31 @@
         <v>1590.547811004715</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362704</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7427,10 +7427,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398594</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797189</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7688,10 +7688,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7728,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127284</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.262887399594348</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446529</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8295,19 +8295,19 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127264</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>26.13373767211345</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8529,25 +8529,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.6295957084429</v>
       </c>
       <c r="M9" t="n">
-        <v>255.2581536004323</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.1463441538074</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>35.6838667053903</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>205.844576940154</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>66.36248435538607</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864917</v>
       </c>
       <c r="G31" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,13 +25081,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911104</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>716012.3781689524</v>
+        <v>716012.3781689525</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.274728755</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="H2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="N2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="O2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="J2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>706253.2747287552</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580779</v>
+        <v>390680.0076580801</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606942</v>
+        <v>507909.232060692</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,25 +26381,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911404</v>
+        <v>68999.15441911426</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.980485103213517e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.2377910174</v>
+        <v>95270.23779101793</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954692</v>
+        <v>132717.9756954687</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,10 +26421,10 @@
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.6527555027</v>
+        <v>139261.652755502</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
@@ -26433,31 +26433,31 @@
         <v>10557.08828678122</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678119</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678118</v>
+        <v>10557.08828678111</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678118</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678112</v>
       </c>
       <c r="N4" t="n">
+        <v>10557.08828678119</v>
+      </c>
+      <c r="O4" t="n">
         <v>10557.08828678112</v>
       </c>
-      <c r="O4" t="n">
-        <v>10557.08828678113</v>
-      </c>
       <c r="P4" t="n">
-        <v>10557.08828678119</v>
+        <v>10557.08828678116</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567889</v>
+        <v>92902.86757567908</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26525,43 +26525,43 @@
         <v>405031.0794521197</v>
       </c>
       <c r="D6" t="n">
-        <v>95567.02064198841</v>
+        <v>95567.02064198682</v>
       </c>
       <c r="E6" t="n">
-        <v>86664.42455737259</v>
+        <v>86629.68663193894</v>
       </c>
       <c r="F6" t="n">
-        <v>594573.6566180673</v>
+        <v>594538.9186926315</v>
       </c>
       <c r="G6" t="n">
-        <v>594573.6566180673</v>
+        <v>594538.9186926314</v>
       </c>
       <c r="H6" t="n">
-        <v>594573.6566180668</v>
+        <v>594538.9186926315</v>
       </c>
       <c r="I6" t="n">
-        <v>594573.6566180671</v>
+        <v>594538.9186926316</v>
       </c>
       <c r="J6" t="n">
-        <v>525574.5021989528</v>
+        <v>525539.7642735174</v>
       </c>
       <c r="K6" t="n">
-        <v>594573.6566180671</v>
+        <v>594538.9186926313</v>
       </c>
       <c r="L6" t="n">
-        <v>499303.4188270497</v>
+        <v>499268.6809016137</v>
       </c>
       <c r="M6" t="n">
-        <v>461855.6809225978</v>
+        <v>461820.9429971629</v>
       </c>
       <c r="N6" t="n">
-        <v>594573.6566180675</v>
+        <v>594538.9186926312</v>
       </c>
       <c r="O6" t="n">
-        <v>594573.6566180671</v>
+        <v>594538.9186926316</v>
       </c>
       <c r="P6" t="n">
-        <v>594573.6566180671</v>
+        <v>594538.9186926314</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.702459562782</v>
+        <v>933.7024595627838</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856949</v>
+        <v>640.1406900856972</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567694e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933036</v>
+        <v>319.6474457933055</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788918</v>
+        <v>434.2730407788899</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,13 +26975,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841887</v>
+        <v>376.426810084191</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139534</v>
+        <v>532.5675980139512</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841887</v>
+        <v>376.4268100841908</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139532</v>
+        <v>532.5675980139512</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841887</v>
+        <v>376.426810084191</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139534</v>
+        <v>532.5675980139512</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>187.4310348820948</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>54.56093585769304</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862865</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545473</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>94.4410130859425</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1.802263929008859</v>
       </c>
     </row>
     <row r="4">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131.6291858374402</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508475</v>
+        <v>26.28664105413748</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619743</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695013</v>
+        <v>105.6401949994326</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>156.5272303086466</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442038</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>89.43925283244548</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27743,25 +27743,25 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>37.93031481862354</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>79.18017171340578</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>61.73429993081363</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117124</v>
+        <v>22.5447505011713</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>102.5086583774867</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465048</v>
+        <v>65.76608425465022</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.6067276056143</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27941,7 +27941,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.77644916452482</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164533716</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>96.91160063724004</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>179.0244917792306</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-2.411577144875051e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29518,13 +29518,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-3.221172893083517e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29995,13 +29995,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-5.458079826312116e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,22 +30034,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-1.736439038534721e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30706,10 +30706,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885553</v>
+        <v>3.75357772688556</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546668</v>
+        <v>38.44132789546676</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157554</v>
+        <v>144.7098053157557</v>
       </c>
       <c r="J8" t="n">
-        <v>318.580217597253</v>
+        <v>318.5802175972536</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763185</v>
+        <v>477.4691627763195</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354924</v>
+        <v>592.3427171354936</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359933</v>
+        <v>659.0954050359946</v>
       </c>
       <c r="N8" t="n">
-        <v>669.760257752507</v>
+        <v>669.7602577525082</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307887</v>
+        <v>632.4356192307899</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983015</v>
+        <v>539.7691690983025</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542126</v>
+        <v>405.3441667542133</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864748</v>
+        <v>235.7856768864753</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140463</v>
+        <v>85.5346524514048</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.43128649944155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508442</v>
+        <v>0.3002862181508448</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.008341139436931</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035138</v>
+        <v>19.39634732035142</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026265</v>
+        <v>69.14683309026277</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079424</v>
+        <v>189.7441951079427</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502165</v>
+        <v>324.3030514502171</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571276</v>
+        <v>436.0654741571284</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617161</v>
+        <v>508.8678404617171</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152208</v>
+        <v>522.3360580152219</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519079</v>
+        <v>477.8354464519088</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947586</v>
+        <v>383.5050724947593</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463699</v>
+        <v>256.3629847463704</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.693320920479</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366396</v>
+        <v>37.30405581366403</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133927</v>
+        <v>8.095024154133943</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419032</v>
+        <v>0.1321277065419034</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752557</v>
+        <v>1.683725746752561</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840002</v>
+        <v>14.96985254840005</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415874</v>
+        <v>50.63422518415884</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772516</v>
+        <v>195.618318577252</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490121</v>
+        <v>250.3240987490126</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023123</v>
+        <v>263.9316641023128</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462347</v>
+        <v>257.6559590462352</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046252</v>
+        <v>237.9869810046257</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.6389757708733</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307407</v>
+        <v>75.70643221307421</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658774</v>
+        <v>29.3427477865878</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942744</v>
+        <v>7.194100917942758</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650324</v>
+        <v>0.09183958618650342</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,13 +31841,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>552.0015769888928</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,25 +32072,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,19 +32309,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334981</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422586</v>
@@ -33035,13 +33035,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>746.4857620875795</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,7 +33257,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>391.6051949514473</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33500,28 +33500,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>579.5299594447131</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>302.9675447508045</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>229.6463482471735</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34448,28 +34448,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089033</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>217.4386117456601</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966409</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089031</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="N6" t="n">
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>197.7888359819416</v>
       </c>
       <c r="P6" t="n">
         <v>118.240000033741</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705667</v>
+        <v>137.5343130705674</v>
       </c>
       <c r="K8" t="n">
-        <v>257.379311731338</v>
+        <v>257.3793117313389</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655052</v>
+        <v>356.5763021655063</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087206</v>
+        <v>428.7491718087219</v>
       </c>
       <c r="N8" t="n">
-        <v>440.347194155916</v>
+        <v>440.3471941559173</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091019</v>
+        <v>402.3374078091032</v>
       </c>
       <c r="P8" t="n">
-        <v>308.536173343032</v>
+        <v>308.536173343033</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797631</v>
+        <v>183.0384768797639</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234269</v>
+        <v>20.20013907234315</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127568</v>
+        <v>188.9976037816849</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758575</v>
+        <v>186.4616124758581</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772534</v>
+        <v>640.1406900856972</v>
       </c>
       <c r="M9" t="n">
-        <v>621.9919601401301</v>
+        <v>366.7338065396988</v>
       </c>
       <c r="N9" t="n">
-        <v>640.1406900856949</v>
+        <v>390.9943459318886</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074635</v>
+        <v>335.2392020074644</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804283</v>
+        <v>285.2145317858194</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603484</v>
+        <v>116.3812106603489</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783562</v>
+        <v>24.53548676783586</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873304</v>
+        <v>25.68023017873327</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.3488267513692</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093282</v>
+        <v>277.9141240093287</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641528</v>
+        <v>303.5155410641534</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254633</v>
+        <v>301.7881314254638</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186649</v>
+        <v>262.5721089186653</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357663</v>
+        <v>200.9175350357667</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8270281422857</v>
+        <v>54.82702814228595</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
@@ -35431,7 +35431,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.4543240367771</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,13 +36683,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>615.1440500042462</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>253.0508151715731</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37558,7 +37558,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281451</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
